--- a/src/main/resources/universityResults.xlsx
+++ b/src/main/resources/universityResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>Main profile</t>
   </si>
@@ -33,6 +33,39 @@
   </si>
   <si>
     <t>University name</t>
+  </si>
+  <si>
+    <t>физика</t>
+  </si>
+  <si>
+    <t>Московский Выдуманный Университет</t>
+  </si>
+  <si>
+    <t>Московский Придуманный Институт</t>
+  </si>
+  <si>
+    <t>медицина</t>
+  </si>
+  <si>
+    <t>Московский Государственный Медицинский Университет</t>
+  </si>
+  <si>
+    <t>Тамбовский Университет Медицины</t>
+  </si>
+  <si>
+    <t>Самарский Медицинский Институт</t>
+  </si>
+  <si>
+    <t>лингвистика</t>
+  </si>
+  <si>
+    <t>Воронежский Литературно-Переводческий Университет</t>
+  </si>
+  <si>
+    <t>математика</t>
+  </si>
+  <si>
+    <t>Казанский Университет Вычислений</t>
   </si>
 </sst>
 </file>
@@ -89,7 +122,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -127,6 +160,213 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B2" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B5" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E5" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B7" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C7" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E7" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="F7" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="F9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="F10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/main/resources/universityResults.xlsx
+++ b/src/main/resources/universityResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Main profile</t>
   </si>
@@ -35,37 +35,37 @@
     <t>University name</t>
   </si>
   <si>
+    <t>математика</t>
+  </si>
+  <si>
+    <t>Казанский Университет Вычислений</t>
+  </si>
+  <si>
+    <t>медицина</t>
+  </si>
+  <si>
+    <t>Московский Государственный Медицинский Университет</t>
+  </si>
+  <si>
     <t>физика</t>
   </si>
   <si>
     <t>Московский Выдуманный Университет</t>
   </si>
   <si>
+    <t>Тамбовский Университет Медицины</t>
+  </si>
+  <si>
+    <t>Самарский Медицинский Институт</t>
+  </si>
+  <si>
     <t>Московский Придуманный Институт</t>
   </si>
   <si>
-    <t>медицина</t>
-  </si>
-  <si>
-    <t>Московский Государственный Медицинский Университет</t>
-  </si>
-  <si>
-    <t>Тамбовский Университет Медицины</t>
-  </si>
-  <si>
-    <t>Самарский Медицинский Институт</t>
-  </si>
-  <si>
     <t>лингвистика</t>
   </si>
   <si>
     <t>Воронежский Литературно-Переводческий Университет</t>
-  </si>
-  <si>
-    <t>математика</t>
-  </si>
-  <si>
-    <t>Казанский Университет Вычислений</t>
   </si>
 </sst>
 </file>
@@ -122,7 +122,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -165,13 +165,13 @@
         <v>7</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>0.0</v>
+        <v>4.460000038146973</v>
       </c>
       <c r="C2" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E2" t="n" s="0">
         <v>0.0</v>
@@ -185,114 +185,114 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>0.0</v>
+        <v>4.460000038146973</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>0.0</v>
+        <v>4.25</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>0.0</v>
+        <v>4.300000190734863</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>0.0</v>
+        <v>4.460000038146973</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E4" t="n" s="0">
-        <v>0.0</v>
+        <v>4.699999809265137</v>
       </c>
       <c r="F4" t="n" s="0">
-        <v>0.0</v>
+        <v>4.539999961853027</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>0.0</v>
+        <v>4.460000038146973</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="E5" t="n" s="0">
-        <v>0.0</v>
+        <v>4.349999904632568</v>
       </c>
       <c r="F5" t="n" s="0">
-        <v>0.0</v>
+        <v>4.300000190734863</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>0.0</v>
+        <v>4.460000038146973</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="E6" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="F6" t="n" s="0">
-        <v>0.0</v>
+        <v>4.300000190734863</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>0.0</v>
+        <v>4.460000038146973</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E7" t="n" s="0">
-        <v>0.0</v>
+        <v>4.269999980926514</v>
       </c>
       <c r="F7" t="n" s="0">
-        <v>0.0</v>
+        <v>4.539999961853027</v>
       </c>
       <c r="G7" t="s" s="0">
         <v>15</v>
@@ -303,13 +303,13 @@
         <v>16</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>0.0</v>
+        <v>4.460000038146973</v>
       </c>
       <c r="C8" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E8" t="n" s="0">
         <v>0.0</v>
@@ -318,52 +318,6 @@
         <v>0.0</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="B9" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="C9" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="D9" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="E9" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="F9" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="G9" t="s" s="0">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="B10" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="C10" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="D10" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="E10" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="F10" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="G10" t="s" s="0">
         <v>17</v>
       </c>
     </row>
